--- a/FRE_GY_6861/data/potus_extraction_mapping.xlsx
+++ b/FRE_GY_6861/data/potus_extraction_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\常用\NYU\2021Fall\Course\FRE-GY_6861\fall2021py\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330397BE-8B6A-43E5-8898-EDFE089C42CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A577501C-D84B-4425-94CA-D1E6FD44EEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
   <si>
     <t>customer_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -435,7 +435,7 @@
         <v>2020</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -449,7 +449,7 @@
         <v>2020</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -457,114 +457,324 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2016</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>2000</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2016</v>
+      </c>
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1992</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2008</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2008</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>2008</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2008</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2008</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>2000</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>2000</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>2000</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>2000</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>2000</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B22">
         <v>1992</v>
       </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>1992</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>1992</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>1992</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>1992</v>
+      </c>
+      <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
